--- a/CharacterizationResults/ZynqUltrascale+/01-01_DPR_Results_Characterization_Sequential_Memory_Access_512_KiB_Bistream_size.xlsx
+++ b/CharacterizationResults/ZynqUltrascale+/01-01_DPR_Results_Characterization_Sequential_Memory_Access_512_KiB_Bistream_size.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vitto\Desktop\DPR\REPOSITORY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univaq-my.sharepoint.com/personal/giacomo_valente_univaq_it/Documents/1_DPR/Collins_DPR/repo/DPR_Characterization/CharacterizationResults/ZynqUltrascale+/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258BEF3E-D114-419A-A3EE-4E110E98BD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{258BEF3E-D114-419A-A3EE-4E110E98BD7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B6C3DE3-C13E-4E54-B5B4-2ABC51C0501E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22044" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="4 BL" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
                   <c:v>0.53017410655844976</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.63228171226600349</c:v>
+                  <c:v>0.63228171226600305</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1587,7 +1587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -1677,7 +1677,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1711,7 +1711,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -1780,7 +1780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1814,7 +1814,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3128,7 +3128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -3218,7 +3218,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3252,7 +3252,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -3321,7 +3321,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3355,7 +3355,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4669,7 +4669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -4759,7 +4759,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4793,7 +4793,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -4862,7 +4862,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4896,7 +4896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6210,7 +6210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -6300,7 +6300,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6334,7 +6334,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -6403,7 +6403,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6437,7 +6437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7751,7 +7751,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -7841,7 +7841,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7875,7 +7875,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -7944,7 +7944,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7978,7 +7978,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9292,7 +9292,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -9382,7 +9382,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9416,7 +9416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -9485,7 +9485,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9519,7 +9519,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9688,7 +9688,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5.3986765380331532</c:v>
+                  <c:v>5.3986765380331496</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>9.3348004925463055</c:v>
@@ -9697,7 +9697,7 @@
                   <c:v>13.773439640885785</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.85876316851796</c:v>
+                  <c:v>21.858763168517999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10355,7 +10355,7 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>17.456594378562535</c:v>
+                  <c:v>17.4565943785625</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>23.063218842516175</c:v>
@@ -10833,7 +10833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689713727"/>
@@ -10923,7 +10923,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="it-IT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10957,7 +10957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1689714143"/>
@@ -11026,7 +11026,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="it-IT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11060,7 +11060,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="it-IT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15775,7 +15775,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15865,7 +15865,7 @@
         <v>0.53017410655844976</v>
       </c>
       <c r="J2" s="9">
-        <v>0.63228171226600349</v>
+        <v>0.63228171226600305</v>
       </c>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
@@ -16438,8 +16438,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{786E9C37-093D-4EF3-9FCB-6A389E252FD0}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="W14" sqref="W14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19368,8 +19368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AC8471-966F-477E-934C-3826CDB42707}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -19470,7 +19470,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="10">
-        <v>5.3986765380331532</v>
+        <v>5.3986765380331496</v>
       </c>
       <c r="H3" s="10">
         <v>9.3348004925463055</v>
@@ -19479,7 +19479,7 @@
         <v>13.773439640885785</v>
       </c>
       <c r="J3" s="10">
-        <v>21.85876316851796</v>
+        <v>21.858763168517999</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -19767,7 +19767,7 @@
         <v>5</v>
       </c>
       <c r="G12" s="10">
-        <v>17.456594378562535</v>
+        <v>17.4565943785625</v>
       </c>
       <c r="H12" s="10">
         <v>23.063218842516175</v>
